--- a/要素.xlsx
+++ b/要素.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tokku\OneDrive\ドキュメント\Unity Project\火曜1,2限 Unity課題\Kirbys-Dream-Land\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{927D6F41-20D0-4D56-A9D1-46849F22D3A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{482B1B7A-9027-4AE0-8FDF-CA537B65E915}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E9444D4A-AB53-4631-8051-E6E2F2A2FB5B}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="71">
   <si>
     <t>Unity課題</t>
     <rPh sb="5" eb="7">
@@ -421,44 +421,169 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>W,A,S,D</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Space</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ジャンプキー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>移動キー</t>
-    <rPh sb="0" eb="2">
+    <t>名称</t>
+    <rPh sb="0" eb="2">
+      <t>メイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラス名称</t>
+    <rPh sb="3" eb="5">
+      <t>メイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Character</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラス構成</t>
+    <rPh sb="3" eb="5">
+      <t>コウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int hp;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int max_hp;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変数の説明</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>関数の説明</t>
+    <rPh sb="0" eb="2">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変数名</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>関数名</t>
+    <rPh sb="0" eb="2">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>float moveSpeed;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>float hoveringspeed;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bool groundFlag;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャラクターのHP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャラクターのMaxHP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャラクターの移動速度</t>
+    <rPh sb="7" eb="9">
       <t>イドウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Enter</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>攻撃キー</t>
+    <rPh sb="9" eb="11">
+      <t>ソクド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホバリングした時の上にかかる力</t>
+    <rPh sb="7" eb="8">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>チカラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地面に接地しているかどうかの判断</t>
+    <rPh sb="0" eb="2">
+      <t>ジメン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セッチ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ハンダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bool attackFlag;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃ボタンを押したかどうかの判断</t>
     <rPh sb="0" eb="2">
       <t>コウゲキ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>キー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>名称</t>
-    <rPh sb="0" eb="2">
-      <t>メイショウ</t>
-    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ハンダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>void Move()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>void damege(int power)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>void Jump()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>void Attack()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>if (Input.GetkeyDown(Keycode.〇))</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -618,7 +743,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -652,6 +777,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -661,17 +798,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -987,53 +1133,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F58453FE-B95D-464D-A078-5B5C46478955}">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="85" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="15.375" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.375" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.125" style="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="47.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="16"/>
-    <col min="8" max="8" width="13" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.875" style="21" customWidth="1"/>
+    <col min="8" max="8" width="13" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="35.25" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="11"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.4">
       <c r="A4"/>
       <c r="B4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="11"/>
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.4">
       <c r="A7"/>
       <c r="B7"/>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
+      <c r="D7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="11"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G8" s="24"/>
+      <c r="H8" s="22"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C9" s="9" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>17</v>
@@ -1041,70 +1195,53 @@
       <c r="E9" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>53</v>
-      </c>
+      <c r="H9"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="14" t="s">
         <v>3</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>49</v>
-      </c>
+      <c r="G10" s="24"/>
+      <c r="H10" s="22"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C11" s="12"/>
-      <c r="D11" s="7" t="s">
+      <c r="C11" s="16"/>
+      <c r="D11" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>48</v>
-      </c>
+      <c r="G11" s="24"/>
+      <c r="H11" s="22"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C12" s="12"/>
-      <c r="D12" s="7" t="s">
+      <c r="C12" s="16"/>
+      <c r="D12" s="14" t="s">
         <v>4</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>51</v>
-      </c>
+      <c r="G12" s="24"/>
+      <c r="H12" s="22"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C13" s="12"/>
-      <c r="D13" s="7" t="s">
+      <c r="C13" s="16"/>
+      <c r="D13" s="14" t="s">
         <v>5</v>
       </c>
       <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C14" s="12"/>
-      <c r="D14" s="7" t="s">
+      <c r="C14" s="16"/>
+      <c r="D14" s="14" t="s">
         <v>29</v>
       </c>
       <c r="E14" s="6" t="s">
@@ -1112,8 +1249,8 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C15" s="12"/>
-      <c r="D15" s="7" t="s">
+      <c r="C15" s="16"/>
+      <c r="D15" s="14" t="s">
         <v>6</v>
       </c>
       <c r="E15" s="6" t="s">
@@ -1121,15 +1258,15 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C16" s="12"/>
-      <c r="D16" s="7" t="s">
+      <c r="C16" s="16"/>
+      <c r="D16" s="14" t="s">
         <v>7</v>
       </c>
       <c r="E16" s="6"/>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C17" s="12"/>
-      <c r="D17" s="7" t="s">
+      <c r="C17" s="16"/>
+      <c r="D17" s="14" t="s">
         <v>9</v>
       </c>
       <c r="E17" s="6" t="s">
@@ -1137,15 +1274,15 @@
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C18" s="12"/>
-      <c r="D18" s="7" t="s">
+      <c r="C18" s="16"/>
+      <c r="D18" s="14" t="s">
         <v>8</v>
       </c>
       <c r="E18" s="6"/>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C19" s="12"/>
-      <c r="D19" s="7" t="s">
+      <c r="C19" s="16"/>
+      <c r="D19" s="14" t="s">
         <v>19</v>
       </c>
       <c r="E19" s="6" t="s">
@@ -1153,8 +1290,8 @@
       </c>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C20" s="12"/>
-      <c r="D20" s="7" t="s">
+      <c r="C20" s="16"/>
+      <c r="D20" s="14" t="s">
         <v>32</v>
       </c>
       <c r="E20" s="6" t="s">
@@ -1163,11 +1300,11 @@
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C21" s="8"/>
-      <c r="D21" s="7"/>
+      <c r="D21" s="14"/>
       <c r="E21" s="5"/>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="15" t="s">
         <v>10</v>
       </c>
       <c r="D22" s="10" t="s">
@@ -1176,21 +1313,21 @@
       <c r="E22" s="4"/>
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C23" s="12"/>
-      <c r="D23" s="7" t="s">
+      <c r="C23" s="16"/>
+      <c r="D23" s="14" t="s">
         <v>7</v>
       </c>
       <c r="E23" s="4"/>
     </row>
     <row r="24" spans="3:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C24" s="12"/>
-      <c r="D24" s="7" t="s">
+      <c r="C24" s="16"/>
+      <c r="D24" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E24" s="4"/>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C25" s="13"/>
+      <c r="C25" s="17"/>
       <c r="D25" s="10" t="s">
         <v>8</v>
       </c>
@@ -1202,10 +1339,10 @@
       <c r="E26" s="5"/>
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E27" s="4" t="s">
@@ -1213,8 +1350,8 @@
       </c>
     </row>
     <row r="28" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C28" s="13"/>
-      <c r="D28" s="7" t="s">
+      <c r="C28" s="17"/>
+      <c r="D28" s="14" t="s">
         <v>14</v>
       </c>
       <c r="E28" s="6" t="s">
@@ -1227,10 +1364,10 @@
       <c r="E29" s="5"/>
     </row>
     <row r="30" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="14" t="s">
         <v>16</v>
       </c>
       <c r="E30" s="6" t="s">
@@ -1238,63 +1375,163 @@
       </c>
     </row>
     <row r="31" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C31" s="13"/>
-      <c r="D31" s="7" t="s">
+      <c r="C31" s="17"/>
+      <c r="D31" s="14" t="s">
         <v>38</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C33" s="17" t="s">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C33" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="14" t="s">
         <v>34</v>
       </c>
       <c r="E33" s="6"/>
     </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C34" s="17"/>
-      <c r="D34" s="7" t="s">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C34" s="18"/>
+      <c r="D34" s="14" t="s">
         <v>35</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C35" s="17"/>
-      <c r="D35" s="7" t="s">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C35" s="18"/>
+      <c r="D35" s="14" t="s">
         <v>36</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C36" s="17"/>
-      <c r="D36" s="7" t="s">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C36" s="18"/>
+      <c r="D36" s="14" t="s">
         <v>43</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C38" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="14" t="s">
         <v>40</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>41</v>
       </c>
     </row>
+    <row r="41" spans="1:8" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="A41"/>
+      <c r="B41"/>
+      <c r="C41" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="11"/>
+    </row>
+    <row r="43" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="C43" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D43" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E43" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="F43" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="G43" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C44" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E44" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F44" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G44" s="21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C45" s="20"/>
+      <c r="D45" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E45" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="F45" s="13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C46" s="20"/>
+      <c r="D46" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E46" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="F46" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C47" s="20"/>
+      <c r="D47" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E47" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="F47" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C48" s="20"/>
+      <c r="D48" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E48" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="49" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C49" s="20"/>
+      <c r="D49" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E49" s="21" t="s">
+        <v>65</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="C44:C49"/>
     <mergeCell ref="C10:C20"/>
     <mergeCell ref="C22:C25"/>
     <mergeCell ref="C27:C28"/>

--- a/要素.xlsx
+++ b/要素.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tokku\OneDrive\ドキュメント\Unity Project\火曜1,2限 Unity課題\Kirbys-Dream-Land\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{482B1B7A-9027-4AE0-8FDF-CA537B65E915}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EADF669D-F14E-4713-9D93-348C9B0111AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E9444D4A-AB53-4631-8051-E6E2F2A2FB5B}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="75">
   <si>
     <t>Unity課題</t>
     <rPh sb="5" eb="7">
@@ -583,7 +583,87 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>if (Input.GetkeyDown(Keycode.〇))</t>
+    <t>Spaceを押した時、地面と接しているならジャンプを行い、接していないならホバリングをする</t>
+    <rPh sb="6" eb="7">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジメン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>セッ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>セッ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A,D,←,→でキャラクターの移動</t>
+    <rPh sb="15" eb="17">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャラクターの現在の状態
+敵にも付けてコピー能力の参考にする</t>
+    <rPh sb="7" eb="9">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ノウリョク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>サンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>enum status
+{
+normal,
+cheek,
+beam,
+fire,
+cutter,
+sword
+}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Enterで攻撃判定をONにする
+status次第で攻撃が変わる</t>
+    <rPh sb="6" eb="8">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>シダイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>カ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -743,7 +823,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -789,6 +869,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -801,23 +896,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1133,10 +1216,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F58453FE-B95D-464D-A078-5B5C46478955}">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="85" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="85" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1145,7 +1228,7 @@
     <col min="4" max="4" width="19.125" style="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="47.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.75" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.875" style="21" customWidth="1"/>
+    <col min="7" max="7" width="89.625" style="16" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1156,7 +1239,7 @@
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
       <c r="F1" s="11"/>
-      <c r="G1" s="23"/>
+      <c r="G1" s="18"/>
       <c r="H1" s="11"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.4">
@@ -1167,7 +1250,7 @@
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
       <c r="F4" s="11"/>
-      <c r="G4" s="23"/>
+      <c r="G4" s="18"/>
       <c r="H4" s="11"/>
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.4">
@@ -1178,12 +1261,12 @@
       </c>
       <c r="D7" s="11"/>
       <c r="F7" s="11"/>
-      <c r="G7" s="23"/>
+      <c r="G7" s="18"/>
       <c r="H7" s="11"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="G8" s="24"/>
-      <c r="H8" s="22"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="17"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C9" s="9" t="s">
@@ -1198,7 +1281,7 @@
       <c r="H9"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="20" t="s">
         <v>1</v>
       </c>
       <c r="D10" s="14" t="s">
@@ -1207,40 +1290,40 @@
       <c r="E10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="24"/>
-      <c r="H10" s="22"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="17"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C11" s="16"/>
+      <c r="C11" s="21"/>
       <c r="D11" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="24"/>
-      <c r="H11" s="22"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="17"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C12" s="16"/>
+      <c r="C12" s="21"/>
       <c r="D12" s="14" t="s">
         <v>4</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="24"/>
-      <c r="H12" s="22"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="17"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C13" s="16"/>
+      <c r="C13" s="21"/>
       <c r="D13" s="14" t="s">
         <v>5</v>
       </c>
       <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C14" s="16"/>
+      <c r="C14" s="21"/>
       <c r="D14" s="14" t="s">
         <v>29</v>
       </c>
@@ -1249,7 +1332,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C15" s="16"/>
+      <c r="C15" s="21"/>
       <c r="D15" s="14" t="s">
         <v>6</v>
       </c>
@@ -1258,14 +1341,14 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C16" s="16"/>
+      <c r="C16" s="21"/>
       <c r="D16" s="14" t="s">
         <v>7</v>
       </c>
       <c r="E16" s="6"/>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C17" s="16"/>
+      <c r="C17" s="21"/>
       <c r="D17" s="14" t="s">
         <v>9</v>
       </c>
@@ -1274,14 +1357,14 @@
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C18" s="16"/>
+      <c r="C18" s="21"/>
       <c r="D18" s="14" t="s">
         <v>8</v>
       </c>
       <c r="E18" s="6"/>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C19" s="16"/>
+      <c r="C19" s="21"/>
       <c r="D19" s="14" t="s">
         <v>19</v>
       </c>
@@ -1290,7 +1373,7 @@
       </c>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C20" s="16"/>
+      <c r="C20" s="21"/>
       <c r="D20" s="14" t="s">
         <v>32</v>
       </c>
@@ -1304,7 +1387,7 @@
       <c r="E21" s="5"/>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="20" t="s">
         <v>10</v>
       </c>
       <c r="D22" s="10" t="s">
@@ -1313,21 +1396,21 @@
       <c r="E22" s="4"/>
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C23" s="16"/>
+      <c r="C23" s="21"/>
       <c r="D23" s="14" t="s">
         <v>7</v>
       </c>
       <c r="E23" s="4"/>
     </row>
     <row r="24" spans="3:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C24" s="16"/>
+      <c r="C24" s="21"/>
       <c r="D24" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E24" s="4"/>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C25" s="17"/>
+      <c r="C25" s="22"/>
       <c r="D25" s="10" t="s">
         <v>8</v>
       </c>
@@ -1339,7 +1422,7 @@
       <c r="E26" s="5"/>
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="20" t="s">
         <v>12</v>
       </c>
       <c r="D27" s="14" t="s">
@@ -1350,7 +1433,7 @@
       </c>
     </row>
     <row r="28" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C28" s="17"/>
+      <c r="C28" s="22"/>
       <c r="D28" s="14" t="s">
         <v>14</v>
       </c>
@@ -1364,7 +1447,7 @@
       <c r="E29" s="5"/>
     </row>
     <row r="30" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C30" s="15" t="s">
+      <c r="C30" s="20" t="s">
         <v>15</v>
       </c>
       <c r="D30" s="14" t="s">
@@ -1375,7 +1458,7 @@
       </c>
     </row>
     <row r="31" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C31" s="17"/>
+      <c r="C31" s="22"/>
       <c r="D31" s="14" t="s">
         <v>38</v>
       </c>
@@ -1384,7 +1467,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C33" s="18" t="s">
+      <c r="C33" s="23" t="s">
         <v>33</v>
       </c>
       <c r="D33" s="14" t="s">
@@ -1393,7 +1476,7 @@
       <c r="E33" s="6"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C34" s="18"/>
+      <c r="C34" s="23"/>
       <c r="D34" s="14" t="s">
         <v>35</v>
       </c>
@@ -1402,7 +1485,7 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C35" s="18"/>
+      <c r="C35" s="23"/>
       <c r="D35" s="14" t="s">
         <v>36</v>
       </c>
@@ -1411,7 +1494,7 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C36" s="18"/>
+      <c r="C36" s="23"/>
       <c r="D36" s="14" t="s">
         <v>43</v>
       </c>
@@ -1438,73 +1521,79 @@
       </c>
       <c r="D41" s="11"/>
       <c r="F41" s="11"/>
-      <c r="G41" s="23"/>
+      <c r="G41" s="18"/>
       <c r="H41" s="11"/>
     </row>
     <row r="43" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="C43" s="19" t="s">
+      <c r="C43" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="D43" s="19" t="s">
+      <c r="D43" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="E43" s="19" t="s">
+      <c r="E43" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="F43" s="19" t="s">
+      <c r="F43" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="G43" s="19" t="s">
+      <c r="G43" s="15" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C44" s="20" t="s">
+      <c r="C44" s="16" t="s">
         <v>48</v>
       </c>
       <c r="D44" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="E44" s="21" t="s">
+      <c r="E44" s="16" t="s">
         <v>59</v>
       </c>
       <c r="F44" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="G44" s="21" t="s">
-        <v>70</v>
+      <c r="G44" s="16" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C45" s="20"/>
+      <c r="C45" s="16"/>
       <c r="D45" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="E45" s="21" t="s">
+      <c r="E45" s="16" t="s">
         <v>60</v>
       </c>
       <c r="F45" s="13" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C46" s="20"/>
+      <c r="G45" s="16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="C46" s="16"/>
       <c r="D46" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="E46" s="21" t="s">
+      <c r="E46" s="16" t="s">
         <v>61</v>
       </c>
       <c r="F46" s="13" t="s">
         <v>69</v>
       </c>
+      <c r="G46" s="25" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C47" s="20"/>
+      <c r="C47" s="16"/>
       <c r="D47" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="E47" s="21" t="s">
+      <c r="E47" s="16" t="s">
         <v>62</v>
       </c>
       <c r="F47" s="13" t="s">
@@ -1512,26 +1601,33 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C48" s="20"/>
+      <c r="C48" s="16"/>
       <c r="D48" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="E48" s="21" t="s">
+      <c r="E48" s="16" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="49" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C49" s="20"/>
+      <c r="C49" s="16"/>
       <c r="D49" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="E49" s="21" t="s">
+      <c r="E49" s="16" t="s">
         <v>65</v>
       </c>
     </row>
+    <row r="50" spans="3:5" ht="168.75" x14ac:dyDescent="0.4">
+      <c r="D50" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="E50" s="25" t="s">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="C44:C49"/>
+  <mergeCells count="5">
     <mergeCell ref="C10:C20"/>
     <mergeCell ref="C22:C25"/>
     <mergeCell ref="C27:C28"/>

--- a/要素.xlsx
+++ b/要素.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tokku\OneDrive\ドキュメント\Unity Project\火曜1,2限 Unity課題\Kirbys-Dream-Land\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EADF669D-F14E-4713-9D93-348C9B0111AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{267A3A7C-56E9-4CCE-957D-4A2C1C2D9F25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E9444D4A-AB53-4631-8051-E6E2F2A2FB5B}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="91">
   <si>
     <t>Unity課題</t>
     <rPh sb="5" eb="7">
@@ -188,22 +188,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>移動キーを2回高速で押す</t>
-    <rPh sb="0" eb="2">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>カイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>コウソク</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ジャンプ中にもう一度ジャンプキー</t>
     <rPh sb="4" eb="5">
       <t>チュウ</t>
@@ -435,10 +419,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Character</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>クラス構成</t>
     <rPh sb="3" eb="5">
       <t>コウセイ</t>
@@ -498,10 +478,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>float hoveringspeed;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>bool groundFlag;</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -524,19 +500,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ホバリングした時の上にかかる力</t>
-    <rPh sb="7" eb="8">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ウエ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>チカラ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>地面に接地しているかどうかの判断</t>
     <rPh sb="0" eb="2">
       <t>ジメン</t>
@@ -567,19 +530,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>void Move()</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>void damege(int power)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>void Jump()</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>void Attack()</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -635,8 +586,220 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>void Damege(int power)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>void Recover(int val)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OncollisionEnter2Dを使いその中で使う
+当たったアイテムのtagに応じて引数の値を変え、hpにその値を増やしmax_hpを超える場合はmax_hpを代入</t>
+    <rPh sb="19" eb="20">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>ダイニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Player</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int life</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーの残機</t>
+    <rPh sb="6" eb="8">
+      <t>ザンキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>void GameOver()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>残機が-1になったら呼ばれ、GameOverSceneに遷移する</t>
+    <rPh sb="0" eb="2">
+      <t>ザンキ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>void ReStart()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hpが0になったら残機を1減らしてそのSceneの最初の地点からやり直す</t>
+    <rPh sb="9" eb="11">
+      <t>ザンキ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ヘ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>チテン</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ナオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Character
+:
+MonoBehaviour</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bool hoveringFlag;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>float hoveringSpeed;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Enterで攻撃判定をONにする
+hoveringFlagやstatus次第で攻撃が変わる</t>
+    <rPh sb="6" eb="8">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>シダイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホバリングした時の上にかかる力</t>
+  </si>
+  <si>
+    <t>地面に接地しているかどうかの判断</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>virtual void Attack()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bool invincibleFlag;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無敵かどうかの判断</t>
+    <rPh sb="0" eb="2">
+      <t>ムテキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ハンダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OncollisionEnter2Dを使いその中で使う
+当たった攻撃のtagに応じて引数の値を変え、hpからその値を引く
+invicibleFlagがtrueならhpから引く前にreturn</t>
+    <rPh sb="19" eb="20">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="87" eb="88">
+      <t>マエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>enum status
 {
+enemy,
 normal,
 cheek,
 beam,
@@ -647,22 +810,24 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Enterで攻撃判定をONにする
-status次第で攻撃が変わる</t>
-    <rPh sb="6" eb="8">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ハンテイ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>シダイ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>カ</t>
+    <t>移動キー+SHIFT</t>
+    <rPh sb="0" eb="2">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>void Run();</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>void Walk()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A,D,←,→でキャラクターの移動 ＊ 1.5f;</t>
+    <rPh sb="15" eb="17">
+      <t>イドウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -715,7 +880,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -731,6 +896,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -823,7 +1000,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -869,9 +1046,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -884,6 +1058,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -894,13 +1080,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1216,10 +1408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F58453FE-B95D-464D-A078-5B5C46478955}">
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="85" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1228,7 +1420,7 @@
     <col min="4" max="4" width="19.125" style="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="47.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.75" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="89.625" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="89.625" style="15" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1239,18 +1431,18 @@
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
       <c r="F1" s="11"/>
-      <c r="G1" s="18"/>
+      <c r="G1" s="17"/>
       <c r="H1" s="11"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.4">
       <c r="A4"/>
       <c r="B4" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
       <c r="F4" s="11"/>
-      <c r="G4" s="18"/>
+      <c r="G4" s="17"/>
       <c r="H4" s="11"/>
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.4">
@@ -1261,16 +1453,16 @@
       </c>
       <c r="D7" s="11"/>
       <c r="F7" s="11"/>
-      <c r="G7" s="18"/>
+      <c r="G7" s="17"/>
       <c r="H7" s="11"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="G8" s="19"/>
-      <c r="H8" s="17"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="16"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C9" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>17</v>
@@ -1281,7 +1473,7 @@
       <c r="H9"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="23" t="s">
         <v>1</v>
       </c>
       <c r="D10" s="14" t="s">
@@ -1290,49 +1482,49 @@
       <c r="E10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="19"/>
-      <c r="H10" s="17"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="16"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C11" s="21"/>
+      <c r="C11" s="24"/>
       <c r="D11" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" s="19"/>
-      <c r="H11" s="17"/>
+        <v>30</v>
+      </c>
+      <c r="G11" s="18"/>
+      <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C12" s="21"/>
+      <c r="C12" s="24"/>
       <c r="D12" s="14" t="s">
         <v>4</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="19"/>
-      <c r="H12" s="17"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C13" s="21"/>
+      <c r="C13" s="24"/>
       <c r="D13" s="14" t="s">
         <v>5</v>
       </c>
       <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C14" s="21"/>
+      <c r="C14" s="24"/>
       <c r="D14" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C15" s="21"/>
+      <c r="C15" s="24"/>
       <c r="D15" s="14" t="s">
         <v>6</v>
       </c>
@@ -1341,44 +1533,44 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C16" s="21"/>
+      <c r="C16" s="24"/>
       <c r="D16" s="14" t="s">
         <v>7</v>
       </c>
       <c r="E16" s="6"/>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C17" s="21"/>
+      <c r="C17" s="24"/>
       <c r="D17" s="14" t="s">
         <v>9</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>23</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C18" s="21"/>
+      <c r="C18" s="24"/>
       <c r="D18" s="14" t="s">
         <v>8</v>
       </c>
       <c r="E18" s="6"/>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C19" s="21"/>
+      <c r="C19" s="24"/>
       <c r="D19" s="14" t="s">
         <v>19</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C20" s="21"/>
+      <c r="C20" s="24"/>
       <c r="D20" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.4">
@@ -1387,7 +1579,7 @@
       <c r="E21" s="5"/>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="23" t="s">
         <v>10</v>
       </c>
       <c r="D22" s="10" t="s">
@@ -1396,21 +1588,21 @@
       <c r="E22" s="4"/>
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C23" s="21"/>
+      <c r="C23" s="24"/>
       <c r="D23" s="14" t="s">
         <v>7</v>
       </c>
       <c r="E23" s="4"/>
     </row>
     <row r="24" spans="3:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C24" s="21"/>
+      <c r="C24" s="24"/>
       <c r="D24" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E24" s="4"/>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C25" s="22"/>
+      <c r="C25" s="25"/>
       <c r="D25" s="10" t="s">
         <v>8</v>
       </c>
@@ -1422,23 +1614,23 @@
       <c r="E26" s="5"/>
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C27" s="20" t="s">
+      <c r="C27" s="23" t="s">
         <v>12</v>
       </c>
       <c r="D27" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C28" s="22"/>
+      <c r="C28" s="25"/>
       <c r="D28" s="14" t="s">
         <v>14</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="3:5" x14ac:dyDescent="0.4">
@@ -1447,59 +1639,59 @@
       <c r="E29" s="5"/>
     </row>
     <row r="30" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C30" s="20" t="s">
+      <c r="C30" s="23" t="s">
         <v>15</v>
       </c>
       <c r="D30" s="14" t="s">
         <v>16</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C31" s="22"/>
+      <c r="C31" s="25"/>
       <c r="D31" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E31" s="6" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C33" s="23" t="s">
+      <c r="C33" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D33" s="14" t="s">
+      <c r="E33" s="6"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C34" s="22"/>
+      <c r="D34" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="E33" s="6"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C34" s="23"/>
-      <c r="D34" s="14" t="s">
+      <c r="E34" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C35" s="22"/>
+      <c r="D35" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E34" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C35" s="23"/>
-      <c r="D35" s="14" t="s">
-        <v>36</v>
-      </c>
       <c r="E35" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C36" s="22"/>
+      <c r="D36" s="14" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C36" s="23"/>
-      <c r="D36" s="14" t="s">
+      <c r="E36" s="6" t="s">
         <v>43</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.4">
@@ -1507,127 +1699,185 @@
         <v>18</v>
       </c>
       <c r="D38" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E38" s="6" t="s">
         <v>40</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:8" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.4">
       <c r="A41"/>
       <c r="B41"/>
       <c r="C41" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D41" s="11"/>
       <c r="F41" s="11"/>
-      <c r="G41" s="18"/>
+      <c r="G41" s="17"/>
       <c r="H41" s="11"/>
     </row>
     <row r="43" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="C43" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="D43" s="15" t="s">
+      <c r="C43" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C44" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="D44" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="E44" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="F44" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="G44" s="20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C45" s="22"/>
+      <c r="D45" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="E45" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="F45" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="G45" s="20" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C46" s="22"/>
+      <c r="D46" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="E43" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="F43" s="15" t="s">
+      <c r="E46" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="F46" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="G46" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="C47" s="22"/>
+      <c r="D47" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="G43" s="15" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C44" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D44" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="E44" s="16" t="s">
+      <c r="E47" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="F44" s="13" t="s">
+      <c r="F47" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="G47" s="21" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="C48" s="22"/>
+      <c r="D48" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="E48" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F48" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="G44" s="16" t="s">
+      <c r="G48" s="21" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="49" spans="3:7" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="C49" s="22"/>
+      <c r="D49" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="E49" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="F49" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="G49" s="21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="50" spans="3:7" ht="187.5" x14ac:dyDescent="0.4">
+      <c r="C50" s="22"/>
+      <c r="D50" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="E50" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="F50" s="19"/>
+      <c r="G50" s="20"/>
+    </row>
+    <row r="52" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C52" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D52" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E52" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C45" s="16"/>
-      <c r="D45" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E45" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="F45" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="G45" s="16" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="C46" s="16"/>
-      <c r="D46" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="E46" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="F46" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="G46" s="25" t="s">
+      <c r="F52" s="13" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C47" s="16"/>
-      <c r="D47" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="E47" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="F47" s="13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C48" s="16"/>
-      <c r="D48" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="E48" s="16" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="49" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C49" s="16"/>
-      <c r="D49" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="E49" s="16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="50" spans="3:5" ht="168.75" x14ac:dyDescent="0.4">
-      <c r="D50" s="24" t="s">
+      <c r="G52" s="15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="D53" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="E53" t="s">
+        <v>80</v>
+      </c>
+      <c r="F53" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="G53" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="E50" s="25" t="s">
-        <v>72</v>
+    </row>
+    <row r="54" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="D54" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E54" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="C44:C50"/>
     <mergeCell ref="C10:C20"/>
     <mergeCell ref="C22:C25"/>
     <mergeCell ref="C27:C28"/>

--- a/要素.xlsx
+++ b/要素.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tokku\OneDrive\ドキュメント\Unity Project\火曜1,2限 Unity課題\Kirbys-Dream-Land\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{267A3A7C-56E9-4CCE-957D-4A2C1C2D9F25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD6823DC-4E11-4D92-8C13-E12EAADA051C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E9444D4A-AB53-4631-8051-E6E2F2A2FB5B}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="103">
   <si>
     <t>Unity課題</t>
     <rPh sb="5" eb="7">
@@ -210,19 +210,6 @@
     </rPh>
     <rPh sb="16" eb="17">
       <t>モノ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>HP全快アイテムと半分回復</t>
-    <rPh sb="2" eb="4">
-      <t>ゼンカイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ハンブン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>カイフク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -591,54 +578,6 @@
   </si>
   <si>
     <t>void Recover(int val)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>OncollisionEnter2Dを使いその中で使う
-当たったアイテムのtagに応じて引数の値を変え、hpにその値を増やしmax_hpを超える場合はmax_hpを代入</t>
-    <rPh sb="19" eb="20">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>オウ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>ヒキスウ</t>
-    </rPh>
-    <rPh sb="47" eb="48">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="49" eb="50">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="57" eb="58">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="59" eb="60">
-      <t>フ</t>
-    </rPh>
-    <rPh sb="69" eb="70">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="72" eb="74">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="82" eb="84">
-      <t>ダイニュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Player</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -828,6 +767,181 @@
     <t>A,D,←,→でキャラクターの移動 ＊ 1.5f;</t>
     <rPh sb="15" eb="17">
       <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>override void Attack();</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Player
+:
+Character</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Enterで攻撃判定をONにする
+status次第で攻撃が変わる</t>
+    <rPh sb="6" eb="8">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>シダイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0になったら死んでしまう</t>
+    <rPh sb="6" eb="7">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基本的に横移動したまんま</t>
+    <rPh sb="0" eb="3">
+      <t>キホンテキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヨコ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A,D,←,→で移動</t>
+    <rPh sb="8" eb="10">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Spaceでジャンプ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャラの上からﾋﾞﾋﾞﾋﾞして床に触れるくらいまでﾋﾞﾋﾞﾋﾞ</t>
+    <rPh sb="4" eb="5">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ユカ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>フ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目の前の敵やブロックを破壊しcheek状態にする</t>
+    <rPh sb="0" eb="1">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ハカイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エリア移動</t>
+    <rPh sb="3" eb="5">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドアに触れている状態でWか↑を押す</t>
+    <rPh sb="3" eb="4">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>当たるとHPが全快する</t>
+    <rPh sb="0" eb="1">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ゼンカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OncollisionEnter2Dを使いその中で使う
+hpにmax_hpを代入</t>
+    <rPh sb="19" eb="20">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ダイニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一部の敵は少し歩いてから攻撃をする</t>
+    <rPh sb="0" eb="2">
+      <t>イチブ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>アル</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一部の敵は少し歩いてからジャンプをする</t>
+    <rPh sb="0" eb="2">
+      <t>イチブ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>アル</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1000,7 +1114,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1070,6 +1184,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1077,21 +1209,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1408,10 +1525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F58453FE-B95D-464D-A078-5B5C46478955}">
-  <dimension ref="A1:H54"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H50" sqref="H50"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1437,7 +1554,7 @@
     <row r="4" spans="1:8" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.4">
       <c r="A4"/>
       <c r="B4" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -1462,7 +1579,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C9" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>17</v>
@@ -1473,7 +1590,7 @@
       <c r="H9"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="29" t="s">
         <v>1</v>
       </c>
       <c r="D10" s="14" t="s">
@@ -1486,18 +1603,18 @@
       <c r="H10" s="16"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C11" s="24"/>
+      <c r="C11" s="30"/>
       <c r="D11" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G11" s="18"/>
       <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C12" s="24"/>
+      <c r="C12" s="30"/>
       <c r="D12" s="14" t="s">
         <v>4</v>
       </c>
@@ -1508,23 +1625,25 @@
       <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C13" s="24"/>
+      <c r="C13" s="30"/>
       <c r="D13" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="6"/>
+      <c r="E13" s="6" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C14" s="24"/>
+      <c r="C14" s="30"/>
       <c r="D14" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C15" s="24"/>
+      <c r="C15" s="30"/>
       <c r="D15" s="14" t="s">
         <v>6</v>
       </c>
@@ -1533,30 +1652,34 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C16" s="24"/>
+      <c r="C16" s="30"/>
       <c r="D16" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="6"/>
+      <c r="E16" s="6" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C17" s="24"/>
+      <c r="C17" s="30"/>
       <c r="D17" s="14" t="s">
         <v>9</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C18" s="24"/>
+      <c r="C18" s="30"/>
       <c r="D18" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="6"/>
+      <c r="E18" s="6" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C19" s="24"/>
+      <c r="C19" s="30"/>
       <c r="D19" s="14" t="s">
         <v>19</v>
       </c>
@@ -1565,324 +1688,352 @@
       </c>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C20" s="24"/>
+      <c r="C20" s="30"/>
       <c r="D20" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C21" s="30"/>
+      <c r="D21" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C22" s="8"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="5"/>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C23" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C24" s="30"/>
+      <c r="D24" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C25" s="30"/>
+      <c r="D25" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C26" s="31"/>
+      <c r="D26" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="5"/>
+    </row>
+    <row r="28" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C28" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C29" s="31"/>
+      <c r="D29" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="5"/>
+    </row>
+    <row r="31" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C31" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C32" s="31"/>
+      <c r="D32" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C34" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C21" s="8"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="5"/>
-    </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C22" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="4"/>
-    </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C23" s="24"/>
-      <c r="D23" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="4"/>
-    </row>
-    <row r="24" spans="3:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C24" s="24"/>
-      <c r="D24" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="4"/>
-    </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C25" s="25"/>
-      <c r="D25" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="6"/>
-    </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="5"/>
-    </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C27" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C28" s="25"/>
-      <c r="D28" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="5"/>
-    </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C30" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C31" s="25"/>
-      <c r="D31" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="E31" s="6" t="s">
+      <c r="D34" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C35" s="28"/>
+      <c r="D35" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C36" s="28"/>
+      <c r="D36" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C37" s="28"/>
+      <c r="D37" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C39" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" s="14" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C33" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="E33" s="6"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C34" s="22"/>
-      <c r="D34" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C35" s="22"/>
-      <c r="D35" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C36" s="22"/>
-      <c r="D36" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C38" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D38" s="14" t="s">
+      <c r="E39" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E38" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="A41"/>
-      <c r="B41"/>
-      <c r="C41" s="12" t="s">
+    </row>
+    <row r="42" spans="1:8" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="A42"/>
+      <c r="B42"/>
+      <c r="C42" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="11"/>
+    </row>
+    <row r="44" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="C44" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C45" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="D45" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="D41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="11"/>
-    </row>
-    <row r="43" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="C43" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F43" s="9" t="s">
+      <c r="E45" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="F45" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="G45" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C46" s="28"/>
+      <c r="D46" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="E46" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="F46" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="G46" s="20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C47" s="28"/>
+      <c r="D47" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="G43" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C44" s="26" t="s">
+      <c r="E47" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="F47" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="G47" s="20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="C48" s="28"/>
+      <c r="D48" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E48" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="F48" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="G48" s="21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="49" spans="3:7" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="C49" s="28"/>
+      <c r="D49" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E49" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="F49" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="G49" s="21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="50" spans="3:7" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="C50" s="28"/>
+      <c r="D50" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="E50" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="F50" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="G50" s="21" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="3:7" ht="187.5" x14ac:dyDescent="0.4">
+      <c r="C51" s="28"/>
+      <c r="D51" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="E51" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="F51" s="19"/>
+      <c r="G51" s="20"/>
+    </row>
+    <row r="53" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C53" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="D53" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F53" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="G53" s="20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="54" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C54" s="28"/>
+      <c r="D54" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F54" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="G54" s="20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="55" spans="3:7" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="C55" s="28"/>
+      <c r="D55" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F55" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="G55" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="D44" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="E44" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="F44" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="G44" s="20" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C45" s="22"/>
-      <c r="D45" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="E45" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="F45" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="G45" s="20" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C46" s="22"/>
-      <c r="D46" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="E46" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="F46" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="G46" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="C47" s="22"/>
-      <c r="D47" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="E47" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="F47" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="G47" s="21" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="C48" s="22"/>
-      <c r="D48" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="E48" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="F48" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="G48" s="21" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="49" spans="3:7" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="C49" s="22"/>
-      <c r="D49" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="E49" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="F49" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="G49" s="21" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="50" spans="3:7" ht="187.5" x14ac:dyDescent="0.4">
-      <c r="C50" s="22"/>
-      <c r="D50" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="E50" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="F50" s="19"/>
-      <c r="G50" s="20"/>
-    </row>
-    <row r="52" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="C52" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="D52" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="E52" t="s">
-        <v>71</v>
-      </c>
-      <c r="F52" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="G52" s="15" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="53" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="D53" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E53" t="s">
-        <v>80</v>
-      </c>
-      <c r="F53" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="G53" s="15" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="54" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="D54" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="E54" t="s">
-        <v>81</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="C44:C50"/>
-    <mergeCell ref="C10:C20"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C33:C36"/>
-    <mergeCell ref="C30:C31"/>
+  <mergeCells count="7">
+    <mergeCell ref="C53:C55"/>
+    <mergeCell ref="C45:C51"/>
+    <mergeCell ref="C10:C21"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="C31:C32"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/要素.xlsx
+++ b/要素.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tokku\OneDrive\ドキュメント\Unity Project\火曜1,2限 Unity課題\Kirbys-Dream-Land\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD6823DC-4E11-4D92-8C13-E12EAADA051C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C6FF954-4D05-446C-B321-2C96E47633D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E9444D4A-AB53-4631-8051-E6E2F2A2FB5B}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="114">
   <si>
     <t>Unity課題</t>
     <rPh sb="5" eb="7">
@@ -942,6 +942,83 @@
     </rPh>
     <rPh sb="7" eb="8">
       <t>アル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スライディング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sキー(↓キー)＋攻撃キー</t>
+    <rPh sb="9" eb="11">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>梯子</t>
+    <rPh sb="0" eb="2">
+      <t>ハシゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>W,Sキーで上り下りをする</t>
+    <rPh sb="6" eb="7">
+      <t>ノボ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スコア</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コピー能力</t>
+    <rPh sb="3" eb="5">
+      <t>ノウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーの残りHP</t>
+    <rPh sb="6" eb="7">
+      <t>ノコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーの残機数</t>
+    <rPh sb="6" eb="8">
+      <t>ザンキ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現在のスコア</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーの現在の状態</t>
+    <rPh sb="6" eb="8">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1136,54 +1213,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1194,6 +1268,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1525,66 +1602,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F58453FE-B95D-464D-A078-5B5C46478955}">
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="15.375" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.375" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.125" style="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="47.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.75" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="89.625" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.75" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="89.625" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="35.25" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="11"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="10"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.4">
       <c r="A4"/>
       <c r="B4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="11"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="10"/>
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.4">
       <c r="A7"/>
       <c r="B7"/>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="11"/>
+      <c r="D7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="G8" s="18"/>
-      <c r="H8" s="16"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="15"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="8" t="s">
         <v>18</v>
       </c>
       <c r="H9"/>
@@ -1593,40 +1670,40 @@
       <c r="C10" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="13" t="s">
         <v>3</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="18"/>
-      <c r="H10" s="16"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="15"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C11" s="30"/>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="18"/>
-      <c r="H11" s="16"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="15"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C12" s="30"/>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="13" t="s">
         <v>4</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="18"/>
-      <c r="H12" s="16"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="15"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C13" s="30"/>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="13" t="s">
         <v>5</v>
       </c>
       <c r="E13" s="6" t="s">
@@ -1635,7 +1712,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C14" s="30"/>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="13" t="s">
         <v>27</v>
       </c>
       <c r="E14" s="6" t="s">
@@ -1644,7 +1721,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C15" s="30"/>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="13" t="s">
         <v>6</v>
       </c>
       <c r="E15" s="6" t="s">
@@ -1653,7 +1730,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C16" s="30"/>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="13" t="s">
         <v>7</v>
       </c>
       <c r="E16" s="6" t="s">
@@ -1662,7 +1739,7 @@
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C17" s="30"/>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="13" t="s">
         <v>9</v>
       </c>
       <c r="E17" s="6" t="s">
@@ -1671,7 +1748,7 @@
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C18" s="30"/>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="13" t="s">
         <v>8</v>
       </c>
       <c r="E18" s="6" t="s">
@@ -1680,360 +1757,436 @@
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C19" s="30"/>
-      <c r="D19" s="14" t="s">
-        <v>19</v>
+      <c r="D19" s="26" t="s">
+        <v>103</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>23</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C20" s="30"/>
-      <c r="D20" s="14" t="s">
-        <v>30</v>
+      <c r="D20" s="13" t="s">
+        <v>19</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C21" s="30"/>
-      <c r="D21" s="22" t="s">
+      <c r="D21" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C22" s="30"/>
+      <c r="D22" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E22" s="6" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C22" s="8"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="5"/>
-    </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="7"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="5"/>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C24" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D24" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E24" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C24" s="30"/>
-      <c r="D24" s="14" t="s">
+    <row r="25" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C25" s="30"/>
+      <c r="D25" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E25" s="4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="3:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C25" s="30"/>
-      <c r="D25" s="14" t="s">
+    <row r="26" spans="3:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C26" s="30"/>
+      <c r="D26" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E26" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C26" s="31"/>
-      <c r="D26" s="10" t="s">
+    <row r="27" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C27" s="31"/>
+      <c r="D27" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E27" s="6" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="5"/>
-    </row>
     <row r="28" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C28" s="29" t="s">
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="5"/>
+    </row>
+    <row r="29" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C29" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="14" t="s">
+      <c r="D29" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E29" s="4" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C29" s="31"/>
-      <c r="D29" s="14" t="s">
+    <row r="30" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C30" s="31"/>
+      <c r="D30" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E30" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="5"/>
-    </row>
     <row r="31" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C31" s="29" t="s">
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="5"/>
+    </row>
+    <row r="32" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C32" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="D31" s="14" t="s">
+      <c r="D32" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E32" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C32" s="31"/>
-      <c r="D32" s="14" t="s">
+    <row r="33" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C33" s="30"/>
+      <c r="D33" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="34" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C34" s="31"/>
+      <c r="D34" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="E34" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C34" s="28" t="s">
+    <row r="36" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C36" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="D34" s="14" t="s">
+      <c r="D36" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="E36" s="6" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C35" s="28"/>
-      <c r="D35" s="14" t="s">
+    <row r="37" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C37" s="28"/>
+      <c r="D37" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="E37" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C36" s="28"/>
-      <c r="D36" s="14" t="s">
+    <row r="38" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C38" s="28"/>
+      <c r="D38" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="E38" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C37" s="28"/>
-      <c r="D37" s="14" t="s">
+    <row r="39" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C39" s="28"/>
+      <c r="D39" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="E37" s="6" t="s">
+      <c r="E39" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C39" s="7" t="s">
+    <row r="40" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C40"/>
+      <c r="D40"/>
+      <c r="F40"/>
+      <c r="G40"/>
+      <c r="H40"/>
+    </row>
+    <row r="41" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C41" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="D41" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F41"/>
+      <c r="G41"/>
+      <c r="H41"/>
+    </row>
+    <row r="42" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C42" s="30"/>
+      <c r="D42" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="F42"/>
+      <c r="G42"/>
+      <c r="H42"/>
+    </row>
+    <row r="43" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C43" s="30"/>
+      <c r="D43" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="F43"/>
+      <c r="G43"/>
+      <c r="H43"/>
+    </row>
+    <row r="44" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C44" s="31"/>
+      <c r="D44" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F44"/>
+      <c r="G44"/>
+      <c r="H44"/>
+    </row>
+    <row r="46" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C46" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="D39" s="14" t="s">
+      <c r="D46" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E39" s="6" t="s">
+      <c r="E46" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:8" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="A42"/>
-      <c r="B42"/>
-      <c r="C42" s="12" t="s">
+    <row r="49" spans="1:8" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="A49"/>
+      <c r="B49"/>
+      <c r="C49" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="11"/>
-    </row>
-    <row r="44" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="C44" s="9" t="s">
+      <c r="D49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="10"/>
+    </row>
+    <row r="51" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="C51" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D44" s="9" t="s">
+      <c r="D51" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E44" s="9" t="s">
+      <c r="E51" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="F44" s="9" t="s">
+      <c r="F51" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="G44" s="9" t="s">
+      <c r="G51" s="8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C45" s="27" t="s">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C52" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="D45" s="23" t="s">
+      <c r="D52" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="E45" s="20" t="s">
+      <c r="E52" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="F45" s="23" t="s">
+      <c r="F52" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="G45" s="20" t="s">
+      <c r="G52" s="19" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C46" s="28"/>
-      <c r="D46" s="23" t="s">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C53" s="28"/>
+      <c r="D53" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="E46" s="20" t="s">
+      <c r="E53" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="F46" s="26" t="s">
+      <c r="F53" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="G46" s="20" t="s">
+      <c r="G53" s="19" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C47" s="28"/>
-      <c r="D47" s="23" t="s">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C54" s="28"/>
+      <c r="D54" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="E47" s="20" t="s">
+      <c r="E54" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="F47" s="23" t="s">
+      <c r="F54" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="G47" s="20" t="s">
+      <c r="G54" s="19" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="C48" s="28"/>
-      <c r="D48" s="23" t="s">
+    <row r="55" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="C55" s="28"/>
+      <c r="D55" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="E48" s="20" t="s">
+      <c r="E55" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="F48" s="25" t="s">
+      <c r="F55" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="G48" s="21" t="s">
+      <c r="G55" s="20" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="49" spans="3:7" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="C49" s="28"/>
-      <c r="D49" s="23" t="s">
+    <row r="56" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="C56" s="28"/>
+      <c r="D56" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="E49" s="20" t="s">
+      <c r="E56" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="F49" s="23" t="s">
+      <c r="F56" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="G49" s="21" t="s">
+      <c r="G56" s="20" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="50" spans="3:7" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="C50" s="28"/>
-      <c r="D50" s="23" t="s">
+    <row r="57" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="C57" s="28"/>
+      <c r="D57" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="E50" s="20" t="s">
+      <c r="E57" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="F50" s="23" t="s">
+      <c r="F57" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="G50" s="21" t="s">
+      <c r="G57" s="20" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="3:7" ht="187.5" x14ac:dyDescent="0.4">
-      <c r="C51" s="28"/>
-      <c r="D51" s="24" t="s">
+    <row r="58" spans="1:8" ht="187.5" x14ac:dyDescent="0.4">
+      <c r="C58" s="28"/>
+      <c r="D58" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="E51" s="21" t="s">
+      <c r="E58" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="F51" s="19"/>
-      <c r="G51" s="20"/>
-    </row>
-    <row r="53" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="C53" s="27" t="s">
+      <c r="F58" s="18"/>
+      <c r="G58" s="19"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C60" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="D53" s="23" t="s">
+      <c r="D60" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="E53" s="6" t="s">
+      <c r="E60" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="F53" s="23" t="s">
+      <c r="F60" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="G53" s="20" t="s">
+      <c r="G60" s="19" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="54" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="C54" s="28"/>
-      <c r="D54" s="23" t="s">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C61" s="28"/>
+      <c r="D61" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="E54" s="6" t="s">
+      <c r="E61" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="F54" s="23" t="s">
+      <c r="F61" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="G54" s="20" t="s">
+      <c r="G61" s="19" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="55" spans="3:7" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="C55" s="28"/>
-      <c r="D55" s="23" t="s">
+    <row r="62" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="C62" s="28"/>
+      <c r="D62" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="E55" s="6" t="s">
+      <c r="E62" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="F55" s="25" t="s">
+      <c r="F62" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="G55" s="21" t="s">
+      <c r="G62" s="20" t="s">
         <v>76</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C53:C55"/>
-    <mergeCell ref="C45:C51"/>
-    <mergeCell ref="C10:C21"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="C31:C32"/>
+  <mergeCells count="8">
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="C52:C58"/>
+    <mergeCell ref="C10:C22"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="C41:C44"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/要素.xlsx
+++ b/要素.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tokku\OneDrive\ドキュメント\Unity Project\火曜1,2限 Unity課題\Kirbys-Dream-Land\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C6FF954-4D05-446C-B321-2C96E47633D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06E653FD-D878-472F-A54D-12769B69C24E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E9444D4A-AB53-4631-8051-E6E2F2A2FB5B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Unity" sheetId="2" r:id="rId1"/>
+    <sheet name="要素" sheetId="2" r:id="rId1"/>
+    <sheet name="クラス構成" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,14 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="114">
-  <si>
-    <t>Unity課題</t>
-    <rPh sb="5" eb="7">
-      <t>カダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="116">
   <si>
     <t>プレイヤー</t>
     <phoneticPr fontId="1"/>
@@ -227,16 +221,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>タイトル　星のカービィ夢の泉の物語 (2D)</t>
-    <rPh sb="5" eb="6">
-      <t>ボシ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>モノガタリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>飲み込み</t>
     <rPh sb="0" eb="1">
       <t>ノ</t>
@@ -328,17 +312,6 @@
     </rPh>
     <rPh sb="13" eb="15">
       <t>カノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ゴールゲーム</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メーターをいっぱいのタイミングで押すゲーム</t>
-    <rPh sb="16" eb="17">
-      <t>オ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -736,7 +709,294 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>enum status
+    <t>移動キー+SHIFT</t>
+    <rPh sb="0" eb="2">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>void Run();</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A,D,←,→でキャラクターの移動 ＊ 1.5f;</t>
+    <rPh sb="15" eb="17">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Player
+:
+Character</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Enterで攻撃判定をONにする
+status次第で攻撃が変わる</t>
+    <rPh sb="6" eb="8">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>シダイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0になったら死んでしまう</t>
+    <rPh sb="6" eb="7">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基本的に横移動したまんま</t>
+    <rPh sb="0" eb="3">
+      <t>キホンテキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヨコ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A,D,←,→で移動</t>
+    <rPh sb="8" eb="10">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Spaceでジャンプ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャラの上からﾋﾞﾋﾞﾋﾞして床に触れるくらいまでﾋﾞﾋﾞﾋﾞ</t>
+    <rPh sb="4" eb="5">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ユカ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>フ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目の前の敵やブロックを破壊しcheek状態にする</t>
+    <rPh sb="0" eb="1">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ハカイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エリア移動</t>
+    <rPh sb="3" eb="5">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドアに触れている状態でWか↑を押す</t>
+    <rPh sb="3" eb="4">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>当たるとHPが全快する</t>
+    <rPh sb="0" eb="1">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ゼンカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OncollisionEnter2Dを使いその中で使う
+hpにmax_hpを代入</t>
+    <rPh sb="19" eb="20">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ダイニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一部の敵は少し歩いてから攻撃をする</t>
+    <rPh sb="0" eb="2">
+      <t>イチブ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>アル</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一部の敵は少し歩いてからジャンプをする</t>
+    <rPh sb="0" eb="2">
+      <t>イチブ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>アル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スライディング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sキー(↓キー)＋攻撃キー</t>
+    <rPh sb="9" eb="11">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>梯子</t>
+    <rPh sb="0" eb="2">
+      <t>ハシゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>W,Sキーで上り下りをする</t>
+    <rPh sb="6" eb="7">
+      <t>ノボ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スコア</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コピー能力</t>
+    <rPh sb="3" eb="5">
+      <t>ノウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーの残りHP</t>
+    <rPh sb="6" eb="7">
+      <t>ノコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーの残機数</t>
+    <rPh sb="6" eb="8">
+      <t>ザンキ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現在のスコア</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーの現在の状態</t>
+    <rPh sb="6" eb="8">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Enemy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャラクターの向き</t>
+    <rPh sb="7" eb="8">
+      <t>ム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>enum DirectionType
+{
+up,
+down,
+left,
+right
+}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>enum Status
 {
 enemy,
 normal,
@@ -749,277 +1009,29 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>移動キー+SHIFT</t>
-    <rPh sb="0" eb="2">
-      <t>イドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>void Run();</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>void Walk()</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A,D,←,→でキャラクターの移動 ＊ 1.5f;</t>
-    <rPh sb="15" eb="17">
-      <t>イドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>override void Attack();</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Player
-:
-Character</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Enterで攻撃判定をONにする
-status次第で攻撃が変わる</t>
-    <rPh sb="6" eb="8">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ハンテイ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>シダイ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0になったら死んでしまう</t>
-    <rPh sb="6" eb="7">
-      <t>シ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>基本的に横移動したまんま</t>
-    <rPh sb="0" eb="3">
-      <t>キホンテキ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ヨコ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>イドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A,D,←,→で移動</t>
-    <rPh sb="8" eb="10">
-      <t>イドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Spaceでジャンプ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>キャラの上からﾋﾞﾋﾞﾋﾞして床に触れるくらいまでﾋﾞﾋﾞﾋﾞ</t>
-    <rPh sb="4" eb="5">
-      <t>ウエ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ユカ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>フ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>目の前の敵やブロックを破壊しcheek状態にする</t>
+    <t>virtual void Walk()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>override void Move()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>override void Attack()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>星のカービィ夢の泉の物語 (2D)</t>
     <rPh sb="0" eb="1">
-      <t>メ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ハカイ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ジョウタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>エリア移動</t>
-    <rPh sb="3" eb="5">
-      <t>イドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ドアに触れている状態でWか↑を押す</t>
-    <rPh sb="3" eb="4">
-      <t>フ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>当たるとHPが全快する</t>
-    <rPh sb="0" eb="1">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ゼンカイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>OncollisionEnter2Dを使いその中で使う
-hpにmax_hpを代入</t>
-    <rPh sb="19" eb="20">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>ダイニュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>一部の敵は少し歩いてから攻撃をする</t>
-    <rPh sb="0" eb="2">
-      <t>イチブ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>スコ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>アル</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>コウゲキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>一部の敵は少し歩いてからジャンプをする</t>
-    <rPh sb="0" eb="2">
-      <t>イチブ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>スコ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>アル</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スライディング</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Sキー(↓キー)＋攻撃キー</t>
-    <rPh sb="9" eb="11">
-      <t>コウゲキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>梯子</t>
-    <rPh sb="0" eb="2">
-      <t>ハシゴ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>W,Sキーで上り下りをする</t>
-    <rPh sb="6" eb="7">
-      <t>ノボ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>UI</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スコア</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>コピー能力</t>
-    <rPh sb="3" eb="5">
-      <t>ノウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プレイヤーの残りHP</t>
-    <rPh sb="6" eb="7">
-      <t>ノコ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プレイヤーの残機数</t>
-    <rPh sb="6" eb="8">
-      <t>ザンキ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>スウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>現在のスコア</t>
-    <rPh sb="0" eb="2">
-      <t>ゲンザイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プレイヤーの現在の状態</t>
-    <rPh sb="6" eb="8">
-      <t>ゲンザイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ジョウタイ</t>
-    </rPh>
+      <t>ボシ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>モノガタリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>星のカービィ夢の泉の物語 (2D)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1054,7 +1066,7 @@
     </font>
     <font>
       <b/>
-      <sz val="20"/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="3"/>
@@ -1063,7 +1075,7 @@
     </font>
     <font>
       <b/>
-      <sz val="16"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="3"/>
@@ -1071,7 +1083,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1092,13 +1104,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1191,7 +1215,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1201,92 +1225,95 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1602,591 +1629,640 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F58453FE-B95D-464D-A078-5B5C46478955}">
-  <dimension ref="A1:H62"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="15.375" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.125" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.375" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.125" style="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="47.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.75" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="89.625" style="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="89.625" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="35.25" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="9"/>
+    </row>
+    <row r="3" spans="1:8" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="A3"/>
+      <c r="B3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G4" s="15"/>
+      <c r="H4" s="13"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C5" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C6" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="10"/>
-    </row>
-    <row r="4" spans="1:8" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.4">
-      <c r="A4"/>
-      <c r="B4" s="3" t="s">
+      <c r="D6" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="15"/>
+      <c r="H6" s="13"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C7" s="21"/>
+      <c r="D7" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="15"/>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C8" s="21"/>
+      <c r="D8" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="15"/>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C9" s="21"/>
+      <c r="D9" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C10" s="21"/>
+      <c r="D10" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="10"/>
-    </row>
-    <row r="7" spans="1:8" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="A7"/>
-      <c r="B7"/>
-      <c r="C7" s="11" t="s">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C11" s="21"/>
+      <c r="D11" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C12" s="21"/>
+      <c r="D12" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C13" s="21"/>
+      <c r="D13" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C14" s="21"/>
+      <c r="D14" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C15" s="21"/>
+      <c r="D15" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C16" s="21"/>
+      <c r="D16" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C17" s="21"/>
+      <c r="D17" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C18" s="22"/>
+      <c r="D18" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C19" s="6"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C20" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="10"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="G8" s="17"/>
-      <c r="H8" s="15"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C9" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C10" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="13" t="s">
+      <c r="E20" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C21" s="21"/>
+      <c r="D21" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C22" s="21"/>
+      <c r="D22" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C23" s="22"/>
+      <c r="D23" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C25" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C26" s="22"/>
+      <c r="D26" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="4"/>
+    </row>
+    <row r="28" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C28" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C29" s="21"/>
+      <c r="D29" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C30" s="22"/>
+      <c r="D30" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C32" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C33" s="21"/>
+      <c r="D33" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C34" s="21"/>
+      <c r="D34" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C35" s="22"/>
+      <c r="D35" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C36"/>
+      <c r="D36"/>
+      <c r="F36"/>
+      <c r="G36"/>
+      <c r="H36"/>
+    </row>
+    <row r="37" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C37" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="D37" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F37"/>
+      <c r="G37"/>
+      <c r="H37"/>
+    </row>
+    <row r="38" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C38" s="21"/>
+      <c r="D38" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="17"/>
-      <c r="H10" s="15"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C11" s="30"/>
-      <c r="D11" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" s="17"/>
-      <c r="H11" s="15"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C12" s="30"/>
-      <c r="D12" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="17"/>
-      <c r="H12" s="15"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C13" s="30"/>
-      <c r="D13" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C14" s="30"/>
-      <c r="D14" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C15" s="30"/>
-      <c r="D15" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C16" s="30"/>
-      <c r="D16" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C17" s="30"/>
-      <c r="D17" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C18" s="30"/>
-      <c r="D18" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C19" s="30"/>
-      <c r="D19" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="E19" s="6" t="s">
+      <c r="E38" s="5" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C20" s="30"/>
-      <c r="D20" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C21" s="30"/>
-      <c r="D21" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C22" s="30"/>
-      <c r="D22" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C23" s="7"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="5"/>
-    </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C24" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C25" s="30"/>
-      <c r="D25" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="26" spans="3:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C26" s="30"/>
-      <c r="D26" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="4" t="s">
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="H38"/>
+    </row>
+    <row r="39" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C39" s="21"/>
+      <c r="D39" s="19" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C27" s="31"/>
-      <c r="D27" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="6" t="s">
+      <c r="E39" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F39"/>
+      <c r="G39"/>
+      <c r="H39"/>
+    </row>
+    <row r="40" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C40" s="22"/>
+      <c r="D40" s="19" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="5"/>
-    </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C29" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C30" s="31"/>
-      <c r="D30" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="5"/>
-    </row>
-    <row r="32" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C32" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="33" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C33" s="30"/>
-      <c r="D33" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="E33" s="6" t="s">
+      <c r="E40" s="5" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="34" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C34" s="31"/>
-      <c r="D34" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="36" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C36" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="37" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C37" s="28"/>
-      <c r="D37" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C38" s="28"/>
-      <c r="D38" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="39" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C39" s="28"/>
-      <c r="D39" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="40" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C40"/>
-      <c r="D40"/>
       <c r="F40"/>
       <c r="G40"/>
       <c r="H40"/>
     </row>
-    <row r="41" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C41" s="29" t="s">
+    <row r="45" spans="3:8" s="11" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="46" spans="3:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="55" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="C6:C18"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C32:C35"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="C37:C40"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2470371D-F13B-4047-80A3-F60CDD1E5062}">
+  <dimension ref="A1:G20"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="89.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="28" customFormat="1" ht="35.25" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="A3"/>
+      <c r="B3" s="32" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="12"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="C6" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="C7" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="C8" s="30"/>
+      <c r="D8" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="C9" s="30"/>
+      <c r="D9" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="C10" s="30"/>
+      <c r="D10" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="C11" s="30"/>
+      <c r="D11" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="C12" s="30"/>
+      <c r="D12" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="131.25" x14ac:dyDescent="0.4">
+      <c r="C13" s="30"/>
+      <c r="D13" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="F13" s="24"/>
+      <c r="G13" s="17"/>
+    </row>
+    <row r="14" spans="1:7" ht="187.5" x14ac:dyDescent="0.4">
+      <c r="C14" s="31"/>
+      <c r="D14" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="19"/>
+      <c r="G14" s="16"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="12"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="C16" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C17" s="30"/>
+      <c r="D17" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="C18" s="31"/>
+      <c r="D18" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="12"/>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C20" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="D41" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="F41"/>
-      <c r="G41"/>
-      <c r="H41"/>
-    </row>
-    <row r="42" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C42" s="30"/>
-      <c r="D42" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="F42"/>
-      <c r="G42"/>
-      <c r="H42"/>
-    </row>
-    <row r="43" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C43" s="30"/>
-      <c r="D43" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="E43" s="6" t="s">
+      <c r="D20" s="19"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="F43"/>
-      <c r="G43"/>
-      <c r="H43"/>
-    </row>
-    <row r="44" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C44" s="31"/>
-      <c r="D44" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="F44"/>
-      <c r="G44"/>
-      <c r="H44"/>
-    </row>
-    <row r="46" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C46" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="D46" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="A49"/>
-      <c r="B49"/>
-      <c r="C49" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="16"/>
-      <c r="H49" s="10"/>
-    </row>
-    <row r="51" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="C51" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E51" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F51" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="G51" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C52" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="D52" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="E52" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="F52" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="G52" s="19" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C53" s="28"/>
-      <c r="D53" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="E53" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="F53" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="G53" s="19" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C54" s="28"/>
-      <c r="D54" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="E54" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="F54" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="G54" s="19" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="C55" s="28"/>
-      <c r="D55" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="E55" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="F55" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="G55" s="20" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="C56" s="28"/>
-      <c r="D56" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="E56" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="F56" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="G56" s="20" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="C57" s="28"/>
-      <c r="D57" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="E57" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="F57" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="G57" s="20" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="187.5" x14ac:dyDescent="0.4">
-      <c r="C58" s="28"/>
-      <c r="D58" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="E58" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="F58" s="18"/>
-      <c r="G58" s="19"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C60" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="D60" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="E60" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F60" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="G60" s="19" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C61" s="28"/>
-      <c r="D61" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="E61" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="F61" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="G61" s="19" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="C62" s="28"/>
-      <c r="D62" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="E62" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="F62" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="G62" s="20" t="s">
-        <v>76</v>
-      </c>
+      <c r="G20" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="C52:C58"/>
-    <mergeCell ref="C10:C22"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="C41:C44"/>
+  <mergeCells count="2">
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="C7:C14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/要素.xlsx
+++ b/要素.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tokku\OneDrive\ドキュメント\Unity Project\火曜1,2限 Unity課題\Kirbys-Dream-Land\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06E653FD-D878-472F-A54D-12769B69C24E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7381634C-79AB-4993-B6B2-3A2F82127DAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E9444D4A-AB53-4631-8051-E6E2F2A2FB5B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{E9444D4A-AB53-4631-8051-E6E2F2A2FB5B}"/>
   </bookViews>
   <sheets>
     <sheet name="要素" sheetId="2" r:id="rId1"/>
@@ -1276,6 +1276,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1285,24 +1306,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1311,9 +1314,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1631,9 +1631,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F58453FE-B95D-464D-A078-5B5C46478955}">
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
+    <sheetView zoomScale="85" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1684,7 +1684,7 @@
       <c r="H5"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="27" t="s">
         <v>0</v>
       </c>
       <c r="D6" s="19" t="s">
@@ -1697,7 +1697,7 @@
       <c r="H6" s="13"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C7" s="21"/>
+      <c r="C7" s="28"/>
       <c r="D7" s="19" t="s">
         <v>10</v>
       </c>
@@ -1708,7 +1708,7 @@
       <c r="H7" s="13"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C8" s="21"/>
+      <c r="C8" s="28"/>
       <c r="D8" s="19" t="s">
         <v>3</v>
       </c>
@@ -1719,7 +1719,7 @@
       <c r="H8" s="13"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C9" s="21"/>
+      <c r="C9" s="28"/>
       <c r="D9" s="19" t="s">
         <v>4</v>
       </c>
@@ -1728,7 +1728,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C10" s="21"/>
+      <c r="C10" s="28"/>
       <c r="D10" s="19" t="s">
         <v>25</v>
       </c>
@@ -1737,7 +1737,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C11" s="21"/>
+      <c r="C11" s="28"/>
       <c r="D11" s="19" t="s">
         <v>5</v>
       </c>
@@ -1746,7 +1746,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C12" s="21"/>
+      <c r="C12" s="28"/>
       <c r="D12" s="19" t="s">
         <v>6</v>
       </c>
@@ -1755,7 +1755,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C13" s="21"/>
+      <c r="C13" s="28"/>
       <c r="D13" s="19" t="s">
         <v>8</v>
       </c>
@@ -1764,7 +1764,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C14" s="21"/>
+      <c r="C14" s="28"/>
       <c r="D14" s="19" t="s">
         <v>7</v>
       </c>
@@ -1773,7 +1773,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C15" s="21"/>
+      <c r="C15" s="28"/>
       <c r="D15" s="19" t="s">
         <v>96</v>
       </c>
@@ -1782,7 +1782,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C16" s="21"/>
+      <c r="C16" s="28"/>
       <c r="D16" s="19" t="s">
         <v>18</v>
       </c>
@@ -1791,7 +1791,7 @@
       </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C17" s="21"/>
+      <c r="C17" s="28"/>
       <c r="D17" s="19" t="s">
         <v>28</v>
       </c>
@@ -1800,7 +1800,7 @@
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C18" s="22"/>
+      <c r="C18" s="29"/>
       <c r="D18" s="19" t="s">
         <v>90</v>
       </c>
@@ -1814,7 +1814,7 @@
       <c r="E19" s="4"/>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="27" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="8" t="s">
@@ -1825,7 +1825,7 @@
       </c>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C21" s="21"/>
+      <c r="C21" s="28"/>
       <c r="D21" s="19" t="s">
         <v>6</v>
       </c>
@@ -1834,7 +1834,7 @@
       </c>
     </row>
     <row r="22" spans="3:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C22" s="21"/>
+      <c r="C22" s="28"/>
       <c r="D22" s="19" t="s">
         <v>10</v>
       </c>
@@ -1843,7 +1843,7 @@
       </c>
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C23" s="22"/>
+      <c r="C23" s="29"/>
       <c r="D23" s="8" t="s">
         <v>7</v>
       </c>
@@ -1857,7 +1857,7 @@
       <c r="E24" s="4"/>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="27" t="s">
         <v>11</v>
       </c>
       <c r="D25" s="19" t="s">
@@ -1868,7 +1868,7 @@
       </c>
     </row>
     <row r="26" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C26" s="22"/>
+      <c r="C26" s="29"/>
       <c r="D26" s="19" t="s">
         <v>13</v>
       </c>
@@ -1882,7 +1882,7 @@
       <c r="E27" s="4"/>
     </row>
     <row r="28" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C28" s="20" t="s">
+      <c r="C28" s="27" t="s">
         <v>14</v>
       </c>
       <c r="D28" s="19" t="s">
@@ -1893,7 +1893,7 @@
       </c>
     </row>
     <row r="29" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C29" s="21"/>
+      <c r="C29" s="28"/>
       <c r="D29" s="19" t="s">
         <v>98</v>
       </c>
@@ -1902,7 +1902,7 @@
       </c>
     </row>
     <row r="30" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C30" s="22"/>
+      <c r="C30" s="29"/>
       <c r="D30" s="19" t="s">
         <v>34</v>
       </c>
@@ -1911,7 +1911,7 @@
       </c>
     </row>
     <row r="32" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C32" s="20" t="s">
+      <c r="C32" s="27" t="s">
         <v>29</v>
       </c>
       <c r="D32" s="19" t="s">
@@ -1922,7 +1922,7 @@
       </c>
     </row>
     <row r="33" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C33" s="21"/>
+      <c r="C33" s="28"/>
       <c r="D33" s="19" t="s">
         <v>31</v>
       </c>
@@ -1931,7 +1931,7 @@
       </c>
     </row>
     <row r="34" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C34" s="21"/>
+      <c r="C34" s="28"/>
       <c r="D34" s="19" t="s">
         <v>32</v>
       </c>
@@ -1940,7 +1940,7 @@
       </c>
     </row>
     <row r="35" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C35" s="22"/>
+      <c r="C35" s="29"/>
       <c r="D35" s="19" t="s">
         <v>37</v>
       </c>
@@ -1956,7 +1956,7 @@
       <c r="H36"/>
     </row>
     <row r="37" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C37" s="20" t="s">
+      <c r="C37" s="27" t="s">
         <v>100</v>
       </c>
       <c r="D37" s="19" t="s">
@@ -1970,7 +1970,7 @@
       <c r="H37"/>
     </row>
     <row r="38" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C38" s="21"/>
+      <c r="C38" s="28"/>
       <c r="D38" s="19" t="s">
         <v>3</v>
       </c>
@@ -1982,7 +1982,7 @@
       <c r="H38"/>
     </row>
     <row r="39" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C39" s="21"/>
+      <c r="C39" s="28"/>
       <c r="D39" s="19" t="s">
         <v>101</v>
       </c>
@@ -1994,7 +1994,7 @@
       <c r="H39"/>
     </row>
     <row r="40" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C40" s="22"/>
+      <c r="C40" s="29"/>
       <c r="D40" s="19" t="s">
         <v>102</v>
       </c>
@@ -2010,12 +2010,12 @@
     <row r="55" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="C37:C40"/>
     <mergeCell ref="C6:C18"/>
     <mergeCell ref="C20:C23"/>
     <mergeCell ref="C25:C26"/>
     <mergeCell ref="C32:C35"/>
     <mergeCell ref="C28:C30"/>
-    <mergeCell ref="C37:C40"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2025,11 +2025,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2470371D-F13B-4047-80A3-F60CDD1E5062}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2041,228 +2041,222 @@
     <col min="7" max="7" width="89.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="28" customFormat="1" ht="35.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" s="25" customFormat="1" ht="35.25" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.4">
       <c r="A3"/>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="26" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="12"/>
+      <c r="C5" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="C6" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" s="23" t="s">
-        <v>46</v>
+      <c r="C6" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="C7" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>43</v>
+      <c r="C7" s="31"/>
+      <c r="D7" s="21" t="s">
+        <v>44</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>111</v>
+        <v>52</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>80</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="C8" s="30"/>
-      <c r="D8" s="24" t="s">
-        <v>44</v>
+      <c r="C8" s="31"/>
+      <c r="D8" s="21" t="s">
+        <v>49</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" s="27" t="s">
-        <v>80</v>
+        <v>53</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>57</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="C9" s="30"/>
-      <c r="D9" s="24" t="s">
-        <v>49</v>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="C9" s="31"/>
+      <c r="D9" s="21" t="s">
+        <v>50</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="F9" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="C10" s="30"/>
-      <c r="D10" s="24" t="s">
-        <v>50</v>
+        <v>54</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="C10" s="31"/>
+      <c r="D10" s="21" t="s">
+        <v>55</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>75</v>
+        <v>56</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>61</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="C11" s="30"/>
-      <c r="D11" s="24" t="s">
-        <v>55</v>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="C11" s="31"/>
+      <c r="D11" s="21" t="s">
+        <v>76</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" s="24" t="s">
-        <v>61</v>
+        <v>77</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>62</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="C12" s="30"/>
-      <c r="D12" s="24" t="s">
-        <v>76</v>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="131.25" x14ac:dyDescent="0.4">
+      <c r="C12" s="31"/>
+      <c r="D12" s="23" t="s">
+        <v>109</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="F12" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="G12" s="17" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="131.25" x14ac:dyDescent="0.4">
-      <c r="C13" s="30"/>
-      <c r="D13" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="E13" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="F13" s="24"/>
-      <c r="G13" s="17"/>
-    </row>
-    <row r="14" spans="1:7" ht="187.5" x14ac:dyDescent="0.4">
-      <c r="C14" s="31"/>
-      <c r="D14" s="26" t="s">
+      <c r="F12" s="21"/>
+      <c r="G12" s="17"/>
+    </row>
+    <row r="13" spans="1:7" ht="187.5" x14ac:dyDescent="0.4">
+      <c r="C13" s="32"/>
+      <c r="D13" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="E14" s="17" t="s">
+      <c r="E13" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="F14" s="19"/>
-      <c r="G14" s="16"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="16"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="12"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="12"/>
+      <c r="C15" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="C16" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>63</v>
+      <c r="C16" s="31"/>
+      <c r="D16" s="21" t="s">
+        <v>71</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F16" s="24" t="s">
-        <v>67</v>
+        <v>73</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>65</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="C17" s="30"/>
-      <c r="D17" s="24" t="s">
-        <v>71</v>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="C17" s="32"/>
+      <c r="D17" s="21" t="s">
+        <v>70</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="F17" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="G17" s="16" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="3:7" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="C18" s="31"/>
-      <c r="D18" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="E18" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="F18" s="18" t="s">
+      <c r="F17" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="G18" s="17" t="s">
+      <c r="G17" s="17" t="s">
         <v>72</v>
       </c>
     </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="12"/>
+    </row>
     <row r="19" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="12"/>
-    </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="C20" s="19" t="s">
+      <c r="C19" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="D20" s="19"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="18" t="s">
+      <c r="D19" s="19"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="G20" s="16"/>
+      <c r="G19" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="C7:C14"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C6:C13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
